--- a/biology/Médecine/SparingVision/SparingVision.xlsx
+++ b/biology/Médecine/SparingVision/SparingVision.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SparingVision est une biotech spécialiste de la médecine génomique pour le traitement des maladies de la rétine[1]. Elle est une entité de l'Institut de la Vision.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SparingVision est une biotech spécialiste de la médecine génomique pour le traitement des maladies de la rétine. Elle est une entité de l'Institut de la Vision.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise est fondée en 2016[2] par Thierry Leveillard, directeur de recherche à l'Inserm et José-Alain Sahel, fondateur et directeur de l'Institut de la Vision. Elle est créée et elle est présidée par Stéphane Boissel[3].
-SparingVision est en test sur deux produits, dont les noms de code sont SPVN06 et SPVN20[4]. Ils visent à combattre la rétinite pigmentaire[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise est fondée en 2016 par Thierry Leveillard, directeur de recherche à l'Inserm et José-Alain Sahel, fondateur et directeur de l'Institut de la Vision. Elle est créée et elle est présidée par Stéphane Boissel.
+SparingVision est en test sur deux produits, dont les noms de code sont SPVN06 et SPVN20. Ils visent à combattre la rétinite pigmentaire.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2020, le SPVN06 obtient le statut de «médicament orphelin » par la Commission européenne[6].
-En septembre 2022, SparingVision lève 75 millions d'euros pour sa thérapie génique de la rétinite pigmentaire[7],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2020, le SPVN06 obtient le statut de «médicament orphelin » par la Commission européenne.
+En septembre 2022, SparingVision lève 75 millions d'euros pour sa thérapie génique de la rétinite pigmentaire,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2017 : Lauréate et Grand Prix du concours national de création d’entreprises innovantes ILAB2017[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2017 : Lauréate et Grand Prix du concours national de création d’entreprises innovantes ILAB2017.</t>
         </is>
       </c>
     </row>
